--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,276 +482,276 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.232412411693002</v>
+        <v>-0.06816068755473803</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5276319814559456</v>
+        <v>-0.1145408450526688</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.428068321758472</v>
+        <v>0.01029391316125328</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8077789636269386</v>
+        <v>0.007358617732927009</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8494933247566223</v>
+        <v>1.182139158248901</v>
       </c>
       <c r="G2" t="n">
-        <v>2.472591400146484</v>
+        <v>1.336656451225281</v>
       </c>
       <c r="H2" t="n">
-        <v>2.269940376281738</v>
+        <v>1.93499755859375</v>
       </c>
       <c r="I2" t="n">
-        <v>2.377224683761597</v>
+        <v>1.618228673934937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_2</t>
+          <t>model_11_0_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2330717395215863</v>
+        <v>-0.04800877986950769</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8661965060974817</v>
+        <v>-0.1081633196274912</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.054855249667459</v>
+        <v>0.05274911024270468</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9035388247354819</v>
+        <v>0.03380314409299034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.848763644695282</v>
+        <v>1.159836888313293</v>
       </c>
       <c r="G3" t="n">
-        <v>3.020584106445312</v>
+        <v>1.329007983207703</v>
       </c>
       <c r="H3" t="n">
-        <v>1.921032786369324</v>
+        <v>1.85199236869812</v>
       </c>
       <c r="I3" t="n">
-        <v>2.503148555755615</v>
+        <v>1.575118184089661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_1</t>
+          <t>model_11_0_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2374372384513935</v>
+        <v>0.04625563942859168</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7589190547105549</v>
+        <v>-0.0008710964236273711</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.194158643543776</v>
+        <v>0.0389028746495631</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8802376647845787</v>
+        <v>0.06777532426969946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8439322710037231</v>
+        <v>1.055513978004456</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84694766998291</v>
+        <v>1.200333714485168</v>
       </c>
       <c r="H4" t="n">
-        <v>2.05126428604126</v>
+        <v>1.879063606262207</v>
       </c>
       <c r="I4" t="n">
-        <v>2.472507238388062</v>
+        <v>1.519735932350159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_8</t>
+          <t>model_11_0_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2562067243515758</v>
+        <v>0.08832561532274152</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.089175667187273</v>
+        <v>0.03279447349524423</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7175645464649478</v>
+        <v>0.05104451970321155</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9360016766188344</v>
+        <v>0.08773935075752892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8231600522994995</v>
+        <v>1.008954882621765</v>
       </c>
       <c r="G5" t="n">
-        <v>3.38149356842041</v>
+        <v>1.159958839416504</v>
       </c>
       <c r="H5" t="n">
-        <v>1.605708241462708</v>
+        <v>1.855325102806091</v>
       </c>
       <c r="I5" t="n">
-        <v>2.545836925506592</v>
+        <v>1.487190008163452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_6</t>
+          <t>model_11_0_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2679407428075503</v>
+        <v>0.3156824169224492</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9985150316089173</v>
+        <v>0.1080818448311355</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7715328087429729</v>
+        <v>0.2932552635074922</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8949674516857384</v>
+        <v>0.2537589461622238</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8101738691329956</v>
+        <v>0.7573379278182983</v>
       </c>
       <c r="G6" t="n">
-        <v>3.234752178192139</v>
+        <v>1.06966757774353</v>
       </c>
       <c r="H6" t="n">
-        <v>1.656161785125732</v>
+        <v>1.381773114204407</v>
       </c>
       <c r="I6" t="n">
-        <v>2.491876840591431</v>
+        <v>1.216540813446045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_9</t>
+          <t>model_11_0_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2853588855916834</v>
+        <v>0.331640229170591</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.003863584048406</v>
+        <v>0.1146681486996772</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6532825693628086</v>
+        <v>0.2942122728580427</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8589025338182108</v>
+        <v>0.2568642014313111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7908970713615417</v>
+        <v>0.7396773099899292</v>
       </c>
       <c r="G7" t="n">
-        <v>3.243409156799316</v>
+        <v>1.061768651008606</v>
       </c>
       <c r="H7" t="n">
-        <v>1.545612573623657</v>
+        <v>1.379902124404907</v>
       </c>
       <c r="I7" t="n">
-        <v>2.444452047348022</v>
+        <v>1.211478590965271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_7</t>
+          <t>model_11_0_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.303304414833436</v>
+        <v>0.3450483649766604</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8540325721928812</v>
+        <v>0.1211862141628894</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7708499198320491</v>
+        <v>0.2509982088256177</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8006006682587583</v>
+        <v>0.2350138551476394</v>
       </c>
       <c r="F8" t="n">
-        <v>0.771036684513092</v>
+        <v>0.7248384356498718</v>
       </c>
       <c r="G8" t="n">
-        <v>3.000895977020264</v>
+        <v>1.053951621055603</v>
       </c>
       <c r="H8" t="n">
-        <v>1.655523538589478</v>
+        <v>1.464390873908997</v>
       </c>
       <c r="I8" t="n">
-        <v>2.367785215377808</v>
+        <v>1.24709951877594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_3</t>
+          <t>model_11_0_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3073376985830147</v>
+        <v>0.3453398061520659</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7280672070831251</v>
+        <v>0.1287726956855113</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8578281668643859</v>
+        <v>0.2605987210437427</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.747612345487477</v>
+        <v>0.2433868260784946</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7665730714797974</v>
+        <v>0.7245159149169922</v>
       </c>
       <c r="G9" t="n">
-        <v>2.797011137008667</v>
+        <v>1.044853329658508</v>
       </c>
       <c r="H9" t="n">
-        <v>1.736837148666382</v>
+        <v>1.445620775222778</v>
       </c>
       <c r="I9" t="n">
-        <v>2.298105239868164</v>
+        <v>1.233449697494507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_4</t>
+          <t>model_11_0_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3202936865275244</v>
+        <v>0.3470543219751281</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7030808589833002</v>
+        <v>0.1256730746258826</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8473138854333977</v>
+        <v>0.2646725653375472</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7278171096802049</v>
+        <v>0.2444787706688515</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7522345781326294</v>
+        <v>0.7226185202598572</v>
       </c>
       <c r="G10" t="n">
-        <v>2.756568908691406</v>
+        <v>1.04857063293457</v>
       </c>
       <c r="H10" t="n">
-        <v>1.727007627487183</v>
+        <v>1.437655925750732</v>
       </c>
       <c r="I10" t="n">
-        <v>2.272074937820435</v>
+        <v>1.231669545173645</v>
       </c>
     </row>
     <row r="11">
@@ -761,152 +761,152 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3219871844856517</v>
+        <v>0.3490945284164856</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8635636314437423</v>
+        <v>0.09629133287235891</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.628154655854704</v>
+        <v>0.2659729499025371</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7590720158921556</v>
+        <v>0.2337695074778183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.750360369682312</v>
+        <v>0.7203605771064758</v>
       </c>
       <c r="G11" t="n">
-        <v>3.01632285118103</v>
+        <v>1.083807706832886</v>
       </c>
       <c r="H11" t="n">
-        <v>1.52212119102478</v>
+        <v>1.435113430023193</v>
       </c>
       <c r="I11" t="n">
-        <v>2.313174962997437</v>
+        <v>1.249127984046936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_20</t>
+          <t>model_11_0_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3363456641709632</v>
+        <v>0.3491885339425902</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8410211097001736</v>
+        <v>0.09655965688814394</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5665830183548366</v>
+        <v>0.2661077711725272</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7237840840382825</v>
+        <v>0.2339500895612397</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7344697713851929</v>
+        <v>0.720256507396698</v>
       </c>
       <c r="G12" t="n">
-        <v>2.979835987091064</v>
+        <v>1.083486080169678</v>
       </c>
       <c r="H12" t="n">
-        <v>1.464559435844421</v>
+        <v>1.434849858283997</v>
       </c>
       <c r="I12" t="n">
-        <v>2.26677131652832</v>
+        <v>1.248833656311035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_5</t>
+          <t>model_11_0_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3539299973515777</v>
+        <v>0.349212249606887</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5724955466737311</v>
+        <v>0.09549771623655212</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8626443970941662</v>
+        <v>0.2668183630552963</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6478469742438653</v>
+        <v>0.233937463362997</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7150091528892517</v>
+        <v>0.7202302217483521</v>
       </c>
       <c r="G13" t="n">
-        <v>2.545206546783447</v>
+        <v>1.084759593009949</v>
       </c>
       <c r="H13" t="n">
-        <v>1.741339683532715</v>
+        <v>1.433460593223572</v>
       </c>
       <c r="I13" t="n">
-        <v>2.166914224624634</v>
+        <v>1.248854279518127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_18</t>
+          <t>model_11_0_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3610742428685461</v>
+        <v>0.3492239351016028</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7446685070450176</v>
+        <v>0.09656495287040912</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5485605198207797</v>
+        <v>0.266207479273331</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6549590464853328</v>
+        <v>0.2340084496531647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7071024775505066</v>
+        <v>0.7202172875404358</v>
       </c>
       <c r="G14" t="n">
-        <v>2.823881864547729</v>
+        <v>1.083479642868042</v>
       </c>
       <c r="H14" t="n">
-        <v>1.447710514068604</v>
+        <v>1.434654951095581</v>
       </c>
       <c r="I14" t="n">
-        <v>2.17626690864563</v>
+        <v>1.248738527297974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_17</t>
+          <t>model_11_0_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3754057434979469</v>
+        <v>0.349372772568099</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6793589254585439</v>
+        <v>0.09440801020418665</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5557752256613266</v>
+        <v>0.268158339668005</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.614813021591335</v>
+        <v>0.2342693739225719</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6912418007850647</v>
+        <v>0.7200526595115662</v>
       </c>
       <c r="G15" t="n">
-        <v>2.718173027038574</v>
+        <v>1.086066484451294</v>
       </c>
       <c r="H15" t="n">
-        <v>1.454455494880676</v>
+        <v>1.430840730667114</v>
       </c>
       <c r="I15" t="n">
-        <v>2.123474836349487</v>
+        <v>1.248313188552856</v>
       </c>
     </row>
     <row r="16">
@@ -916,59 +916,59 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3759849492742484</v>
+        <v>0.3494467356073563</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6745456393840292</v>
+        <v>0.09406023644540007</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5589835631179452</v>
+        <v>0.2686885312312213</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6127513010142971</v>
+        <v>0.2344330967225927</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6906008124351501</v>
+        <v>0.7199707627296448</v>
       </c>
       <c r="G16" t="n">
-        <v>2.710382461547852</v>
+        <v>1.086483478546143</v>
       </c>
       <c r="H16" t="n">
-        <v>1.457454800605774</v>
+        <v>1.42980420589447</v>
       </c>
       <c r="I16" t="n">
-        <v>2.120763778686523</v>
+        <v>1.248046278953552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_19</t>
+          <t>model_11_0_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3811640667853313</v>
+        <v>0.3494523917728968</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6582616336593159</v>
+        <v>0.09410319052176697</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5507714674489914</v>
+        <v>0.2686783949848724</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5993964405754633</v>
+        <v>0.2344441734623272</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6848689913749695</v>
+        <v>0.7199645042419434</v>
       </c>
       <c r="G17" t="n">
-        <v>2.684025287628174</v>
+        <v>1.086432099342346</v>
       </c>
       <c r="H17" t="n">
-        <v>1.449777603149414</v>
+        <v>1.429824113845825</v>
       </c>
       <c r="I17" t="n">
-        <v>2.103201866149902</v>
+        <v>1.24802827835083</v>
       </c>
     </row>
     <row r="18">
@@ -978,152 +978,245 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3882191971101245</v>
+        <v>0.3494529252963493</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6232338554133188</v>
+        <v>0.09407053642250829</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5577872830071742</v>
+        <v>0.2687033971542466</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5789191164327256</v>
+        <v>0.2344455689428081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6770610809326172</v>
+        <v>0.7199639678001404</v>
       </c>
       <c r="G18" t="n">
-        <v>2.627330303192139</v>
+        <v>1.086471080780029</v>
       </c>
       <c r="H18" t="n">
-        <v>1.456336498260498</v>
+        <v>1.42977511882782</v>
       </c>
       <c r="I18" t="n">
-        <v>2.076274156570435</v>
+        <v>1.248026013374329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_12</t>
+          <t>model_11_0_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3953334864329233</v>
+        <v>0.3494662924573493</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5646053734239671</v>
+        <v>0.09405359459439744</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6088695397190338</v>
+        <v>0.2687654045540175</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5578149623990898</v>
+        <v>0.2344739850467156</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6691876649856567</v>
+        <v>0.7199491858482361</v>
       </c>
       <c r="G19" t="n">
-        <v>2.532435417175293</v>
+        <v>1.086491465568542</v>
       </c>
       <c r="H19" t="n">
-        <v>1.50409197807312</v>
+        <v>1.429654002189636</v>
       </c>
       <c r="I19" t="n">
-        <v>2.048522472381592</v>
+        <v>1.247979640960693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_11</t>
+          <t>model_11_0_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3994994063263086</v>
+        <v>0.3494668663482472</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5343831732608852</v>
+        <v>0.09405382462940537</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6300906032984894</v>
+        <v>0.2687674557160448</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5452104417845964</v>
+        <v>0.2344751998668135</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6645771861076355</v>
+        <v>0.7199484705924988</v>
       </c>
       <c r="G20" t="n">
-        <v>2.483518362045288</v>
+        <v>1.086491227149963</v>
       </c>
       <c r="H20" t="n">
-        <v>1.52393114566803</v>
+        <v>1.429649949073792</v>
       </c>
       <c r="I20" t="n">
-        <v>2.031947612762451</v>
+        <v>1.247977614402771</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_14</t>
+          <t>model_11_0_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4194107606267445</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4907840348093631</v>
+        <v>0.09405241784367024</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5564795204520472</v>
+        <v>0.2687719877075746</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.492178770549947</v>
+        <v>0.2344772362615105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.642541229724884</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>2.412949800491333</v>
+        <v>1.086492896080017</v>
       </c>
       <c r="H21" t="n">
-        <v>1.455113887786865</v>
+        <v>1.429641127586365</v>
       </c>
       <c r="I21" t="n">
-        <v>1.962211132049561</v>
+        <v>1.247974395751953</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_0_13</t>
+          <t>model_11_0_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.426993744448341</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4429431480815094</v>
+        <v>0.09405241784367024</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5854389231603108</v>
+        <v>0.2687719877075746</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4706894048414512</v>
+        <v>0.2344772362615105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6341490745544434</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>2.335515737533569</v>
+        <v>1.086492896080017</v>
       </c>
       <c r="H22" t="n">
-        <v>1.482187271118164</v>
+        <v>1.429641127586365</v>
       </c>
       <c r="I22" t="n">
-        <v>1.933952569961548</v>
+        <v>1.247974395751953</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_11_0_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.09405241784367024</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2687719877075746</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2344772362615105</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.086492896080017</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.429641127586365</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.247974395751953</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_11_0_23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09405241784367024</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2687719877075746</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2344772362615105</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.086492896080017</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.429641127586365</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.247974395751953</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_11_0_9</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3497968985498837</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.09807191410583804</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2678309602037704</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2355115197771723</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7195832133293152</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.081672430038452</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.431480884552002</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.246288180351257</v>
       </c>
     </row>
   </sheetData>
